--- a/data/evaluation/evaluation_Center_Spring_Fennel.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Fennel.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1552.71305811087</v>
+        <v>1463.152069369288</v>
       </c>
       <c r="C4" t="n">
-        <v>3818360.565235467</v>
+        <v>3844796.323145034</v>
       </c>
       <c r="D4" t="n">
-        <v>1954.06257966204</v>
+        <v>1960.815219021169</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1744183478821659</v>
+        <v>0.1687025763312354</v>
       </c>
     </row>
     <row r="5">
